--- a/2022/Realme/Others/Shop Open Close Name Change/Shop Name Change Natore.xlsx
+++ b/2022/Realme/Others/Shop Open Close Name Change/Shop Name Change Natore.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88017\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Realme\Others\Shop Open Close Name Change\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,9 +32,6 @@
     <t>Current Shop Name</t>
   </si>
   <si>
-    <t>RK Mobile King</t>
-  </si>
-  <si>
     <t>BD101626</t>
   </si>
   <si>
@@ -42,6 +39,9 @@
   </si>
   <si>
     <t>RE Kabir Telecom Lalpur</t>
+  </si>
+  <si>
+    <t>RE RK Mobile King</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,18 +408,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
